--- a/doc/公共/报销记录.xlsx
+++ b/doc/公共/报销记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>项目</t>
   </si>
@@ -39,15 +39,18 @@
   <si>
     <t>锁</t>
   </si>
+  <si>
+    <t>微信认证</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -60,6 +63,73 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -67,6 +137,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -75,44 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,67 +205,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,6 +215,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -224,7 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +317,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,145 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +406,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,6 +438,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,59 +506,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -511,145 +514,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
@@ -1063,6 +1066,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/公共/报销记录.xlsx
+++ b/doc/公共/报销记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>项目</t>
   </si>
@@ -42,6 +42,9 @@
   <si>
     <t>微信认证</t>
   </si>
+  <si>
+    <t>wa.ski.craftvoid.com</t>
+  </si>
 </sst>
 </file>
 
@@ -49,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,6 +62,111 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,75 +178,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,63 +203,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,43 +218,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,139 +368,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,24 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,11 +444,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,8 +454,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +498,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
@@ -1074,6 +1077,14 @@
         <v>300</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/公共/报销记录.xlsx
+++ b/doc/公共/报销记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>项目</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>清洁工具：拖把、笤帚、抹布</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>VPN服务器</t>
@@ -43,7 +46,7 @@
     <t>微信认证</t>
   </si>
   <si>
-    <t>wa.ski.craftvoid.com</t>
+    <t>wa.ski.craftvoid.com服务器</t>
   </si>
 </sst>
 </file>
@@ -56,13 +59,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -517,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,139 +538,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1010,79 +1025,101 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>70.7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>202.5</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>158</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>183.6</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" ht="14.25" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>256</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/公共/报销记录.xlsx
+++ b/doc/公共/报销记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>项目</t>
   </si>
@@ -48,16 +48,19 @@
   <si>
     <t>wa.ski.craftvoid.com服务器</t>
   </si>
+  <si>
+    <t>办公桌椅+运费</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -74,6 +77,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -82,14 +155,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,21 +171,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,94 +199,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,25 +230,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,157 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,29 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +495,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -526,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
@@ -1122,6 +1125,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/公共/报销记录.xlsx
+++ b/doc/公共/报销记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>项目</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>办公桌椅+运费</t>
+  </si>
+  <si>
+    <t>vpn服务器宽带升级1M-2M 1个月（8/18截止）</t>
   </si>
 </sst>
 </file>
@@ -57,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -85,6 +88,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -92,134 +223,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -230,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,26 +427,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,17 +481,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,26 +524,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,19 +544,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,112 +565,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,10 +1028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1133,6 +1136,14 @@
         <v>900</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>30.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
